--- a/examples/full/flowsheet_metadata.xlsx
+++ b/examples/full/flowsheet_metadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>flowsheet_metadata</t>
   </si>
@@ -97,40 +97,61 @@
     <t>Pressure of incoming feed stream</t>
   </si>
   <si>
-    <t>Component_1_Feed</t>
+    <t>Component_A_Feed</t>
   </si>
   <si>
     <t>kmol/h</t>
   </si>
   <si>
-    <t>Flowrate of light component in feed</t>
-  </si>
-  <si>
-    <t>Component_2_Feed</t>
-  </si>
-  <si>
-    <t>Flowrate of medium component in feed</t>
-  </si>
-  <si>
-    <t>Component_3_Feed</t>
-  </si>
-  <si>
-    <t>Flowrate of heavy component in feed</t>
+    <t>Flowrate of light component A in feed</t>
+  </si>
+  <si>
+    <t>Component_B_Feed</t>
+  </si>
+  <si>
+    <t>Flowrate of heavy component B in feed</t>
+  </si>
+  <si>
+    <t>Feed_Composition_A</t>
+  </si>
+  <si>
+    <t>Mole fraction of component A in feed</t>
+  </si>
+  <si>
+    <t>Feed_Composition_B</t>
+  </si>
+  <si>
+    <t>Mole fraction of component B in feed</t>
   </si>
   <si>
     <t>Product_Specs</t>
   </si>
   <si>
-    <t>Distillate_Purity_C1</t>
-  </si>
-  <si>
-    <t>Minimum purity of component 1 in distillate</t>
-  </si>
-  <si>
-    <t>Bottoms_Purity_C3</t>
-  </si>
-  <si>
-    <t>Minimum purity of component 3 in bottoms</t>
+    <t>Distillate_Purity_A</t>
+  </si>
+  <si>
+    <t>Minimum purity of component A in distillate</t>
+  </si>
+  <si>
+    <t>Bottoms_Purity_B</t>
+  </si>
+  <si>
+    <t>Minimum purity of component B in bottoms</t>
+  </si>
+  <si>
+    <t>Recovery_Specs</t>
+  </si>
+  <si>
+    <t>Recovery_A_in_Distillate</t>
+  </si>
+  <si>
+    <t>Minimum recovery of A in distillate product</t>
+  </si>
+  <si>
+    <t>Recovery_B_in_Bottoms</t>
+  </si>
+  <si>
+    <t>Minimum recovery of B in bottoms product</t>
   </si>
   <si>
     <t>Operating_Constraints</t>
@@ -160,6 +181,15 @@
     <t>Maximum vapor velocity to prevent flooding</t>
   </si>
   <si>
+    <t>Physical_Properties</t>
+  </si>
+  <si>
+    <t>Relative_Volatility_AB</t>
+  </si>
+  <si>
+    <t>Relative volatility of A with respect to B</t>
+  </si>
+  <si>
     <t>Utility_Constraints</t>
   </si>
   <si>
@@ -235,13 +265,7 @@
     <t>objective</t>
   </si>
   <si>
-    <t>Minimize sum of capital and operating costs</t>
-  </si>
-  <si>
-    <t>Maximize_Recovery_C1</t>
-  </si>
-  <si>
-    <t>Maximize recovery of valuable component 1</t>
+    <t xml:space="preserve">Minimize sum of capital and operating costs </t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1557,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1750,7 +1774,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s" s="12">
         <v>29</v>
@@ -1772,11 +1796,9 @@
         <v>33</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>29</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" t="s" s="12">
         <v>23</v>
       </c>
@@ -1788,29 +1810,27 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="B12" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="13">
+        <v>0.375</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.99</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" t="s" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="10">
         <v>38</v>
@@ -1821,10 +1841,10 @@
         <v>14</v>
       </c>
       <c r="F13" s="13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G13" s="13">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="H13" t="s" s="12">
         <v>39</v>
@@ -1832,124 +1852,124 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="H14" t="s" s="12">
         <v>41</v>
-      </c>
-      <c r="C14" s="13">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" t="s" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.6</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.99</v>
+      </c>
       <c r="H15" t="s" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="H16" t="s" s="12">
         <v>46</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" t="s" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="B17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C17" s="13">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <v>26</v>
-      </c>
       <c r="E17" t="s" s="12">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" t="s" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="13">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>22</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" t="s" s="12">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" t="s" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="D19" t="s" s="12">
         <v>54</v>
-      </c>
-      <c r="C19" s="13">
-        <v>500</v>
-      </c>
-      <c r="D19" t="s" s="12">
-        <v>55</v>
       </c>
       <c r="E19" t="s" s="12">
         <v>7</v>
@@ -1957,24 +1977,22 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" t="s" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="10">
         <v>57</v>
       </c>
       <c r="C20" s="13">
-        <v>10000</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>55</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" t="s" s="12">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1990,10 +2008,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="13">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s" s="12">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s" s="12">
         <v>23</v>
@@ -2001,7 +2019,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -2009,13 +2027,13 @@
         <v>59</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="13">
-        <v>0.001</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s" s="12">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s" s="12">
         <v>23</v>
@@ -2023,7 +2041,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -2031,21 +2049,21 @@
         <v>59</v>
       </c>
       <c r="B23" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C23" s="13">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C23" s="13">
-        <v>5000</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <v>66</v>
-      </c>
       <c r="E23" t="s" s="12">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" t="s" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -2053,57 +2071,127 @@
         <v>59</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="D24" t="s" s="12">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" t="s" s="12">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="B25" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
       <c r="E25" t="s" s="12">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" t="s" s="12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="B26" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
       <c r="E26" t="s" s="12">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" t="s" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="s" s="12">
         <v>76</v>
+      </c>
+      <c r="E27" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" t="s" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1500</v>
+      </c>
+      <c r="D28" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" t="s" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" t="s" s="12">
+        <v>83</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" t="s" s="12">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
